--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385AEA1E-4F78-48F6-B6F9-925A7046A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21546BBA-05E2-49E8-A5C3-7832DE1F6677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" activeTab="9" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Arrays</t>
   </si>
@@ -120,12 +120,6 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>expectedResult</t>
-  </si>
-  <si>
-    <t>PythonCode</t>
-  </si>
-  <si>
     <t>NameError: name 'invalid' is not defined on line 1</t>
   </si>
   <si>
@@ -181,13 +175,71 @@
   </si>
   <si>
     <t>https://dsportalapp.herokuapp.com/stack/practice</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>successouput</t>
+  </si>
+  <si>
+    <t>alertmessageoutput</t>
+  </si>
+  <si>
+    <t>pcode</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>lst=[ 1, 6, 3, 5, 3, 4 ] 
+#checking if element 7 is present
+# in the given list or not
+i=7 
+# if element present then return
+# exist otherwise not exist
+if i in lst: 
+ print("exist") 
+else: 
+ print("not exist")</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])   </t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+    if num in input_list:
+        print("Element Found")
+    else:
+        print("Element  Not Found")
+search([12, 23, 45, 67, 6, 90], 12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +259,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,12 +300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -625,38 +700,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +911,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -839,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -847,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -855,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -863,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -871,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -879,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +984,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE1576-1CA8-4CD4-AA6D-1758DDFD0CE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="A1:H199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -940,46 +1133,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385AEA1E-4F78-48F6-B6F9-925A7046A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035913-6F76-47F4-A017-EAEE8C05B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" activeTab="9" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" firstSheet="10" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <sheet name="Find Numbers with Even Number o" sheetId="13" r:id="rId13"/>
     <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
     <sheet name="Signin" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId16"/>
-    <sheet name="Register" sheetId="16" r:id="rId17"/>
+    <sheet name="Register" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Arrays</t>
   </si>
@@ -93,39 +92,15 @@
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Questers</t>
   </si>
   <si>
-    <t>expectedresult</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>sdgh</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>sdff</t>
   </si>
   <si>
-    <t>Awesome@2025</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>expectedResult</t>
-  </si>
-  <si>
-    <t>PythonCode</t>
-  </si>
-  <si>
     <t>NameError: name 'invalid' is not defined on line 1</t>
   </si>
   <si>
@@ -181,13 +156,71 @@
   </si>
   <si>
     <t>https://dsportalapp.herokuapp.com/stack/practice</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>successouput</t>
+  </si>
+  <si>
+    <t>alertmessageoutput</t>
+  </si>
+  <si>
+    <t>pcode</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>lst=[ 1, 6, 3, 5, 3, 4 ] 
+#checking if element 7 is present
+# in the given list or not
+i=7 
+# if element present then return
+# exist otherwise not exist
+if i in lst: 
+ print("exist") 
+else: 
+ print("not exist")</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])   </t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+    if num in input_list:
+        print("Element Found")
+    else:
+        print("Element  Not Found")
+search([12, 23, 45, 67, 6, 90], 12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +240,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,12 +281,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -625,38 +681,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +778,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,76 +791,38 @@
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6DFB066D-71AE-4D49-87DE-4FFA30617F30}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{19F5F5B2-E9D4-421C-938E-F01A2C8A1C28}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA95B62-25C9-4A35-BD98-4DEBB3B33C4D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -828,10 +854,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -839,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -847,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -855,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -863,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -871,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -879,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +927,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE1576-1CA8-4CD4-AA6D-1758DDFD0CE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="A1:H199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -940,46 +1076,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shaalu\Eclipse Workspace\Main Project\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035913-6F76-47F4-A017-EAEE8C05B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8FB14-4B73-45B7-B957-71CB26ECDFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" firstSheet="10" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="941" firstSheet="10" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Arrays</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Graph</t>
-  </si>
-  <si>
-    <t>Re</t>
   </si>
   <si>
     <t>DataStructure-Introduction</t>
@@ -215,12 +212,33 @@
         print("Element  Not Found")
 search([12, 23, 45, 67, 6, 90], 12)</t>
   </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password confirmation</t>
+  </si>
+  <si>
+    <t>Awesome@2025</t>
+  </si>
+  <si>
+    <t>test@9991</t>
+  </si>
+  <si>
+    <t>Tester@4441</t>
+  </si>
+  <si>
+    <t>Questers$</t>
+  </si>
+  <si>
+    <t>Aweso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,16 +277,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,12 +307,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -292,10 +339,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9650DD98-6694-43DC-ACF0-E4D90B79DD6C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,42 +692,42 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -687,40 +746,40 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -746,7 +805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,7 +817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -770,7 +829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,32 +843,32 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -820,20 +879,102 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>14953</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AC4E5F6-ED73-42D6-BEFB-C374DDB30F3E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{D93ECFB0-08F2-44D1-8099-FA63C63F714C}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{0CEF64AF-48BF-4C56-9B7C-E3050B8619D0}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D083A597-1066-476E-818F-0A23FC734258}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{951C153C-4392-4A51-B396-BD19C4E6DFD7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -846,66 +987,66 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +1060,7 @@
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -933,70 +1074,70 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -1006,39 +1147,39 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
     </row>
   </sheetData>
@@ -1053,7 +1194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1067,55 +1208,55 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="55.08984375" customWidth="1"/>
-    <col min="3" max="3" width="45.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1141,7 +1282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1153,19 +1294,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035913-6F76-47F4-A017-EAEE8C05B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B67B7-4013-4219-B6B5-626E49777668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" firstSheet="10" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="4880" yWindow="860" windowWidth="14320" windowHeight="8140" tabRatio="941" firstSheet="2" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Home2" sheetId="2" r:id="rId2"/>
     <sheet name="Data Structures-Introduction" sheetId="3" r:id="rId3"/>
     <sheet name="Array" sheetId="4" r:id="rId4"/>
-    <sheet name="Linked List" sheetId="5" r:id="rId5"/>
+    <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
     <sheet name="Stack" sheetId="6" r:id="rId6"/>
     <sheet name="Queue" sheetId="7" r:id="rId7"/>
     <sheet name="Tree" sheetId="8" r:id="rId8"/>
@@ -26,8 +26,8 @@
     <sheet name="Search the array" sheetId="11" r:id="rId11"/>
     <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
     <sheet name="Find Numbers with Even Number o" sheetId="13" r:id="rId13"/>
-    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
-    <sheet name="Signin" sheetId="15" r:id="rId15"/>
+    <sheet name="Signin" sheetId="15" r:id="rId14"/>
+    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId15"/>
     <sheet name="Register" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Arrays</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Graph</t>
   </si>
   <si>
-    <t>Re</t>
-  </si>
-  <si>
     <t>DataStructure-Introduction</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Questers</t>
-  </si>
-  <si>
-    <t>sdff</t>
   </si>
   <si>
     <t>invalid</t>
@@ -214,6 +208,69 @@
     else:
         print("Element  Not Found")
 search([12, 23, 45, 67, 6, 90], 12)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>passwordconfirmation</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/practice</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/introduction/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/creating-linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/types-of-linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/implement-linked-list-in-python/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/traversal/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/insertion-in-linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/deletion-in-linked-list/</t>
+  </si>
+  <si>
+    <t>Awesome@2025</t>
+  </si>
+  <si>
+    <t>qquesters</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
 </sst>
 </file>
@@ -640,12 +697,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -697,30 +754,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -765,23 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,44 +838,110 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D630A7C5-4499-4774-85AF-D14D954469F3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DDEEAF8E-C9D3-442D-B2D0-8309EDD12721}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +965,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -865,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -873,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -881,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -889,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -897,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -905,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -941,34 +1052,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1049,12 +1160,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C429897D-8D33-4498-B8B0-B8FC2D5DAE4D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
+    <col min="2" max="2" width="75.90625" customWidth="1"/>
+    <col min="3" max="3" width="60.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{12706DE4-B801-4131-9C12-6F9639377CD0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1076,46 +1286,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1375,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B67B7-4013-4219-B6B5-626E49777668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D520E5-8F9C-4CB8-A98F-EA260408067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="860" windowWidth="14320" windowHeight="8140" tabRatio="941" firstSheet="2" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" tabRatio="941" firstSheet="10" activeTab="11" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Home2" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Structures-Introduction" sheetId="3" r:id="rId3"/>
-    <sheet name="Array" sheetId="4" r:id="rId4"/>
-    <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
-    <sheet name="Stack" sheetId="6" r:id="rId6"/>
-    <sheet name="Queue" sheetId="7" r:id="rId7"/>
-    <sheet name="Tree" sheetId="8" r:id="rId8"/>
-    <sheet name="Graph" sheetId="9" r:id="rId9"/>
-    <sheet name="tryEditor" sheetId="10" r:id="rId10"/>
-    <sheet name="Search the array" sheetId="11" r:id="rId11"/>
-    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
-    <sheet name="Find Numbers with Even Number o" sheetId="13" r:id="rId13"/>
-    <sheet name="Signin" sheetId="15" r:id="rId14"/>
-    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId15"/>
-    <sheet name="Register" sheetId="16" r:id="rId16"/>
+    <sheet name="Array" sheetId="4" r:id="rId3"/>
+    <sheet name="LinkedList" sheetId="5" r:id="rId4"/>
+    <sheet name="Stack" sheetId="6" r:id="rId5"/>
+    <sheet name="Queue" sheetId="7" r:id="rId6"/>
+    <sheet name="Tree" sheetId="8" r:id="rId7"/>
+    <sheet name="Graph" sheetId="9" r:id="rId8"/>
+    <sheet name="tryEditor" sheetId="10" r:id="rId9"/>
+    <sheet name="Search the array" sheetId="11" r:id="rId10"/>
+    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId11"/>
+    <sheet name="Find Numbers with Even Number" sheetId="13" r:id="rId12"/>
+    <sheet name="Signin" sheetId="15" r:id="rId13"/>
+    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
+    <sheet name="Register" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
   <si>
     <t>Arrays</t>
   </si>
@@ -170,33 +169,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>not exist</t>
-  </si>
-  <si>
-    <t>lst=[ 1, 6, 3, 5, 3, 4 ] 
-#checking if element 7 is present
-# in the given list or not
-i=7 
-# if element present then return
-# exist otherwise not exist
-if i in lst: 
- print("exist") 
-else: 
- print("not exist")</t>
-  </si>
-  <si>
     <t>[4, 9, 9, 49, 121]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def sortedSquares(nums):
-squares_list = []
-for i in range(0, len(nums)):
-square = nums[i] * nums[i];
-squares_list.append(square)
-sorted_squares_list = sorted(squares_list)
-print sorted_squares_list;
-return sorted_squares_list;
-sortedSquares([-7,-3,2,3,11])   </t>
   </si>
   <si>
     <t>Element Found</t>
@@ -213,12 +186,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>passwordconfirmation</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -271,13 +238,256 @@
   </si>
   <si>
     <t>awesome</t>
+  </si>
+  <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/array/arrays-in-python/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/array/arrays-using-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/array/basic-operations-in-lists/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/array/applications-of-array/</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+    if num in input_list:
+        print("Element Found")
+    else
+        print("Element  Not Found")
+search([12, 23, 45, 67, 6, 90], 12)</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 4</t>
+  </si>
+  <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def findMaxConsecutiveOnes(nums):
+    count = 0
+    result = 0
+    for num in nums:
+        if num == 0:
+            count = 0
+        else:
+            count += 1
+            result = max(result, count)
+    print(float(result))
+    return float(result)
+findMaxConsecutiveOnes([1, 0, 1, 1, 0, 1])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def findMaxConsecutiveOnes(nums)
+    count = 0
+    result = 0
+    for num in nums:
+        if num == 0:
+            count = 0
+        else:
+            count += 1
+            result = max(result, count)
+    print(float(result))
+    return float(result)
+findMaxConsecutiveOnes([1, 0, 1, 1, 0, 1])
+</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+    c = 0
+    for i in nums:
+        j = str(i)
+        x = len(j)
+        if x % 2 == 0:
+            c += 1
+    print(float(c))
+    return float(c)
+findNumbers([12, 345, 2, 6, 7896])</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums)
+    c = 0
+    for i in nums:
+        j = str(i)
+        x = len(j)
+        if x % 2 == 0:
+            c += 1
+    print(float(c))
+    return float(c)
+findNumbers([12, 345, 2, 6, 7896])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+    squares_list = []
+    for i in range(0, len(nums)):
+        square = nums[i] * nums[i]
+        squares_list.append(square)
+    sorted_squares_list = sorted(squares_list)
+    print(sorted_squares_list)
+    return sorted_squares_list
+sortedSquares([-7, -3, 2, 3, 11])
+</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums)
+    squares_list = []
+    for i in range(0, len(nums)):
+        square = nums[i] * nums[i]
+        squares_list.append(square)
+    sorted_squares_list = sorted(squares_list)
+    print(sorted_squares_list)
+    return sorted_squares_list
+sortedSquares([-7, -3, 2, 3, 11])</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+    squares_list = []
+    for i in range(0, len(nums)):
+        square = nums[i] * nums[i]
+        squares_list.append(square)
+    sorted_squares_list = sorted(squares_list)
+    print(sorted_squares_list)
+    return sorted_squares_list
+sortedSquares([-7, -3, 2, 3, 11])</t>
+  </si>
+  <si>
+    <t>Questers$</t>
+  </si>
+  <si>
+    <t>test@9991</t>
+  </si>
+  <si>
+    <t>Aweso</t>
+  </si>
+  <si>
+    <t>password confirmation</t>
+  </si>
+  <si>
+    <t>Tester@4441</t>
+  </si>
+  <si>
+    <t>Overview of Trees</t>
+  </si>
+  <si>
+    <t>Terminologies</t>
+  </si>
+  <si>
+    <t>Types of Trees</t>
+  </si>
+  <si>
+    <t>Tree Traversals</t>
+  </si>
+  <si>
+    <t>Traversals-Illustration</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Types of Binary Trees</t>
+  </si>
+  <si>
+    <t>Implementation in Python</t>
+  </si>
+  <si>
+    <t>Binary Tree Traversals</t>
+  </si>
+  <si>
+    <t>Implementation of Binary Trees</t>
+  </si>
+  <si>
+    <t>Applications of Binary trees</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Implementation Of BST</t>
+  </si>
+  <si>
+    <t>Expected Url</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/overview-of-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/terminologies/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/types-of-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/tree-traversals/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/traversals-illustration/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/binary-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/types-of-binary-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/implementation-in-python/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/binary-tree-traversals/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/implementation-of-binary-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/applications-of-binary-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/binary-search-trees/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tree/implementation-of-bst/</t>
+  </si>
+  <si>
+    <t>Implementation of Queue in Python</t>
+  </si>
+  <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>Implementation using array</t>
+  </si>
+  <si>
+    <t>Queue Operations</t>
+  </si>
+  <si>
+    <t>PracticeQuestionUrl</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/queue/practice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +526,52 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,12 +579,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -349,10 +612,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2955D4F1-801F-4B0F-8A37-08C6D7783E65}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B3A3FDEA-81AD-4C9D-BD1E-246C7CF0C849}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,47 +1020,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -786,46 +1071,112 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857496CA-14D4-4F59-AD9C-0CF7F103AF4D}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857496CA-14D4-4F59-AD9C-0CF7F103AF4D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -849,15 +1200,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -865,20 +1216,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,56 +1246,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10">
+        <v>14953</v>
+      </c>
+      <c r="C6" s="10">
+        <v>14953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AC4E5F6-ED73-42D6-BEFB-C374DDB30F3E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{D93ECFB0-08F2-44D1-8099-FA63C63F714C}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{D083A597-1066-476E-818F-0A23FC734258}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0CEF64AF-48BF-4C56-9B7C-E3050B8619D0}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{951C153C-4392-4A51-B396-BD19C4E6DFD7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1025,65 +1476,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F420C866-BFB7-443C-B947-F78E45D296EC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE1576-1CA8-4CD4-AA6D-1758DDFD0CE2}">
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="61.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -1158,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C429897D-8D33-4498-B8B0-B8FC2D5DAE4D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1186,79 +1630,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE713873-4940-4DFF-8426-D49562607838}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1333,31 +1777,270 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184EC374-1C5F-483C-B6DC-C8765534235D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1000"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AFEE4-CD9A-4103-8AD7-4D2E09BEC97B}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1000"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AFEE4-CD9A-4103-8AD7-4D2E09BEC97B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577733D-C777-46F0-BC94-652458A6D059}">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -1382,4 +2065,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\gitsss\DsAlgoQuesters\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D520E5-8F9C-4CB8-A98F-EA260408067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B63ED-6CCC-4B43-985E-EA968C5F2800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" tabRatio="941" firstSheet="10" activeTab="11" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="941" firstSheet="8" activeTab="8" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>Arrays</t>
   </si>
@@ -149,18 +149,6 @@
   </si>
   <si>
     <t>https://dsportalapp.herokuapp.com/stack/practice</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>successouput</t>
-  </si>
-  <si>
-    <t>alertmessageoutput</t>
   </si>
   <si>
     <t>pcode</t>
@@ -481,6 +469,9 @@
   </si>
   <si>
     <t>https://dsportalapp.herokuapp.com/queue/practice</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -1035,34 +1026,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1086,15 +1077,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1102,18 +1093,18 @@
     </row>
     <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857496CA-14D4-4F59-AD9C-0CF7F103AF4D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1137,15 +1128,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1153,18 +1144,18 @@
     </row>
     <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1200,15 +1191,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,20 +1207,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,34 +1253,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1335,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -1349,10 +1340,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1368,13 +1359,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1382,10 +1373,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1499,34 +1490,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,79 +1621,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1796,39 +1787,39 @@
         <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,111 +1896,111 @@
         <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2069,45 +2060,42 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="44.6328125" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
